--- a/ExcelDriven/demoData.xlsx
+++ b/ExcelDriven/demoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Oz/Documents/Selenium/SeleniumRepo/ExcelDriven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859E879-B778-844D-863A-24CE7DC3C2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B743BF6E-FF8E-8945-9B98-922D636ED99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B2AD6188-0029-C941-99D4-B3025ECCB471}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Data 1</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>func7</t>
-  </si>
-  <si>
-    <t>func8</t>
   </si>
   <si>
     <t>func9</t>
@@ -453,7 +450,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,11 +507,11 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,13 +519,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
